--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value573.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value573.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.532682435016629</v>
+        <v>1.147234082221985</v>
       </c>
       <c r="B1">
-        <v>2.644253103263758</v>
+        <v>2.24649453163147</v>
       </c>
       <c r="C1">
-        <v>2.734140928313589</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.186880873502017</v>
+        <v>2.154542684555054</v>
       </c>
       <c r="E1">
-        <v>0.8879558332421696</v>
+        <v>1.067817211151123</v>
       </c>
     </row>
   </sheetData>
